--- a/Functional-Group/Datas/Stats/clustercenters.xlsx
+++ b/Functional-Group/Datas/Stats/clustercenters.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,20 +441,15 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>ether</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>aldehyde</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>aromatic</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>cycle</t>
         </is>
@@ -462,53 +457,44 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1.683745353784681</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.240198009795508</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>1.021669980951205</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
+        <v>0.9137032076671433</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>3.460053772526015</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>0.9596744520597827</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.6951225421178187</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>3</v>
+        <v>1.618744173530442</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>0.8181676205552553</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>1.762780576214276</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.9355905554710553</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>3</v>
+        <v>3.676130547679126</v>
       </c>
     </row>
   </sheetData>
